--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/52_Kocaeli_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/52_Kocaeli_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EF98024-CA1B-46A2-B44C-621DDC74D724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67E71C0D-BF21-4B99-8FA4-0992B2084EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="645" xr2:uid="{93E654EC-4CB2-4FCA-9C96-380719CF9580}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="645" xr2:uid="{6F531789-FD59-419A-BF18-82AB648FC18D}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -921,14 +921,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{E4D5310E-7C9B-4082-A532-7ED7D70E62B2}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{87886DFA-867D-405F-AB67-48890A98AEFA}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{195F4187-A285-4468-9D9C-3EF10C22D768}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{28EA7357-4C69-43BF-9262-B8BE2665C055}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{664AAA4B-ECD8-4FFF-8E1D-3C8A47C83CCE}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{C02775DC-DA52-470A-AAEB-565557524ED9}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{D4D81A77-869F-42B5-96C4-70B3DE80E679}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{0D1B9780-2471-46BB-A1F9-07C32FF4CDCA}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{E77BDB73-FCF9-4EF0-A34B-4E4E3E38B482}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{004D4801-D843-429D-BC80-0895D7137840}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{B9C6AC33-B266-4063-A082-DF1CF8EFB0F9}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{C4D0BE6C-0802-4410-B08D-7BB1A2DF0610}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{899B587A-91CC-4954-94DE-205E908A87FB}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{8F6B11A6-F071-4D46-9733-419416B5F098}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{F630441C-E44C-4F89-B2F6-78F3DCBAEA57}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{A1CB8174-2F85-476B-B545-259AC9A9AB3E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1298,7 +1298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3936EDEA-85F2-4ECE-BCBB-DF4F165825A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8FA82F-1D2F-48DC-B504-A4E66A564799}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2616,7 +2616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75C6784-B0C3-4539-A43C-CC2EFBC68EEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07874E0A-1A5D-44D9-AAFA-B8B1FC7DD790}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3899,7 +3899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1DE2739-83F1-40C3-B239-6EF2F2F9D5F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E759E4-FFE6-480B-934C-085D86C260A7}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5176,7 +5176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E816CE-9768-4074-9F05-28615A9139D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CED39F-FECE-4A21-8AC2-DB96109B716A}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6449,7 +6449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530D96B4-4CB7-42C1-86AC-12A982D71406}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002436EF-FB8E-43FF-A8D0-BB46C2C433D0}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7764,7 +7764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D1B125-D45C-45DD-AE64-CB119A0D7ADC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EE52F1-BD07-4B85-8DE7-F268066D4EEC}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9079,7 +9079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53C0E2F-31BE-493C-A510-41D09A964DA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE4AAFB-449D-4931-8C8C-EDA49729FE18}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10394,7 +10394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D179045-654F-4E13-9CA4-AC7E319CA209}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34725BD4-6790-4673-8A55-33D2D7BF48AA}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11709,7 +11709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7193968-6E3D-4C8F-8B30-FF98EDA4CB9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9700EB50-9BE4-4BE3-9321-E00A399CA7F2}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13024,7 +13024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C52F8EF-EBA3-42B5-8D35-810DB76588BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF62837-6CB3-489F-B5AF-9E3D01F26431}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14327,7 +14327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95499C7-B98E-434E-81C9-C89FFFC50CE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26997A42-D840-4E4F-8793-DBA3F36BFAAB}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15630,7 +15630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DFC93E9-6178-4477-85AA-6C0CA4F53C26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AFE0C7-0244-4F56-8749-6E5F9DC6DAF4}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
